--- a/survey responses/num_reponses.xlsx
+++ b/survey responses/num_reponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\OneDrive\Uni_Work_Year4\Project\Year-4-Project\survey responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5049D2-C162-4D3B-BE8D-F4CF40B81C53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DC8AA-F67E-4AB2-AE42-EDE04B8A5B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3375" yWindow="345" windowWidth="16200" windowHeight="8085" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,14 +643,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
       </c>
       <c r="F12" s="3">
         <f>SUM(C3:C8)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -707,14 +707,14 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4">
         <f>SUM(C9:C14)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       </c>
       <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>

--- a/survey responses/num_reponses.xlsx
+++ b/survey responses/num_reponses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\OneDrive\Uni_Work_Year4\Project\Year-4-Project\survey responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099DC8AA-F67E-4AB2-AE42-EDE04B8A5B4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2778689-B5F4-4575-A92B-0415D3E51A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="345" windowWidth="16200" windowHeight="8085" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
+    <workbookView xWindow="11745" yWindow="3465" windowWidth="16200" windowHeight="8085" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F8" si="0">SUM(C3+C9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -707,14 +707,14 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="4">
         <f>SUM(C9:C14)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       </c>
       <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>

--- a/survey responses/num_reponses.xlsx
+++ b/survey responses/num_reponses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\OneDrive\Uni_Work_Year4\Project\Year-4-Project\survey responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34B05A-8CCA-496B-974A-3BA89A9338F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465594E-750E-440C-A9D6-DACFE6184CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="F13" s="4">
         <f>SUM(C9:C14)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       </c>
       <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>

--- a/survey responses/num_reponses.xlsx
+++ b/survey responses/num_reponses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\OneDrive\Uni_Work_Year4\Project\Year-4-Project\survey responses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62646b629f64a4d5/Uni_Work_Year4/Project/Year-4-Project/survey responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2778689-B5F4-4575-A92B-0415D3E51A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A2778689-B5F4-4575-A92B-0415D3E51A88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2553B9F3-2BB2-488E-9595-2E7F45CEC0FA}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="3465" windowWidth="16200" windowHeight="8085" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{E83F7F5A-7E74-4147-812C-DD764AD0963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,14 +598,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -613,14 +613,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -643,14 +643,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="4">
         <v>6</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -692,14 +692,14 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="3">
         <f>SUM(C3:C8)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
       </c>
       <c r="F13" s="4">
         <f>SUM(C9:C14)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       </c>
       <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
